--- a/data/trans_dic/P1432-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1432-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0154169702622046</v>
+        <v>0.01553242348016234</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008096045596219022</v>
+        <v>0.007388916658314854</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008783214019798329</v>
+        <v>0.008414767803617364</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02339106724159771</v>
+        <v>0.02228533049482559</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02712796482999582</v>
+        <v>0.02648203749855367</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02310736605652884</v>
+        <v>0.02326358493336018</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02200171598858679</v>
+        <v>0.0223212233178364</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01972064808740129</v>
+        <v>0.02034718093791336</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01876518141438751</v>
+        <v>0.01898874453170362</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03455897349030941</v>
+        <v>0.03442577417848156</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02440926587705129</v>
+        <v>0.02478340557090107</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02701513493183783</v>
+        <v>0.02600908282554091</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04362985063039787</v>
+        <v>0.04230786869652192</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04807239847917574</v>
+        <v>0.04815997109405278</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04862957026935601</v>
+        <v>0.04867860327072623</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03603905708527652</v>
+        <v>0.03562078533451839</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03432228756158467</v>
+        <v>0.03462907914517246</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03523192768960353</v>
+        <v>0.03561747432373626</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001544043893695455</v>
+        <v>0.001556089648296113</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001706987936645208</v>
+        <v>0.002098287911712688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0008114839988998755</v>
+        <v>0.0008134145034483719</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002043966044548779</v>
+        <v>0.002091482808663238</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001558418965847486</v>
+        <v>0.001215352620410254</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004457625626391886</v>
+        <v>0.004763885473597638</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.00263789896944954</v>
+        <v>0.002535611096548874</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002189229859544989</v>
+        <v>0.002220937747202737</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002851493363253948</v>
+        <v>0.003092090551275866</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.007225204445578607</v>
+        <v>0.007320249790862982</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.009839485088335431</v>
+        <v>0.009659758115265076</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.005003900565272435</v>
+        <v>0.004816628718635544</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.009392207023841465</v>
+        <v>0.01018229447483731</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.007811297465034753</v>
+        <v>0.007941752174631368</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01293215853706294</v>
+        <v>0.01320231685982397</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.007228704661401761</v>
+        <v>0.007020083979671507</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.006709589877217407</v>
+        <v>0.006766541070953639</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.007686031521193502</v>
+        <v>0.007607335915881677</v>
       </c>
     </row>
     <row r="10">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001890246476788127</v>
+        <v>0.001916373378222848</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
@@ -901,19 +901,19 @@
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
-        <v>0.002118481917471251</v>
+        <v>0.002143882913028063</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001018627506728931</v>
+        <v>0.0009881433976480652</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.001039054662196179</v>
+        <v>0.001035242588192035</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0008213403786820978</v>
+        <v>0.0008197916298164257</v>
       </c>
     </row>
     <row r="12">
@@ -924,27 +924,27 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02157487991725607</v>
+        <v>0.02036761341559779</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.007831310733963886</v>
+        <v>0.008325116841340109</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.01840883483260342</v>
+        <v>0.02034715655829894</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01471672356179392</v>
+        <v>0.01573647570952263</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01191495391872935</v>
+        <v>0.01122047003656803</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.009105160621685966</v>
+        <v>0.008766997700382995</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.008820576681922394</v>
+        <v>0.008010389197408185</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00790127440197994</v>
+        <v>0.007778858586261092</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003864542085228047</v>
+        <v>0.004052835726284327</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003250336092448396</v>
+        <v>0.003165502112976191</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01135581951712544</v>
+        <v>0.01105620803452549</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01270221210461273</v>
+        <v>0.01232230280412655</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01045560218811088</v>
+        <v>0.0107710070360756</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01019667225461175</v>
+        <v>0.0102892885069448</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.009119821514199752</v>
+        <v>0.00922085717281243</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007632343689180652</v>
+        <v>0.007857442150614952</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01499601045264456</v>
+        <v>0.01487375644877311</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01050697258162194</v>
+        <v>0.01019154233681208</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.008066277579189212</v>
+        <v>0.008131334622205425</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01962394752414813</v>
+        <v>0.02004025318614542</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02104961183632966</v>
+        <v>0.02132539934417461</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01899714579775035</v>
+        <v>0.01976653999688428</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01569824790564721</v>
+        <v>0.01607736825623101</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01429881840969501</v>
+        <v>0.01452662183489178</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01285622357249904</v>
+        <v>0.01266917560562056</v>
       </c>
     </row>
     <row r="16">
@@ -1281,31 +1281,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15906</v>
+        <v>16025</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7891</v>
+        <v>7202</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6626</v>
+        <v>6348</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30762</v>
+        <v>29308</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>36262</v>
+        <v>35398</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22984</v>
+        <v>23139</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>51634</v>
+        <v>52384</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>45581</v>
+        <v>47029</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>32820</v>
+        <v>33211</v>
       </c>
     </row>
     <row r="7">
@@ -1316,31 +1316,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>35655</v>
+        <v>35518</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23790</v>
+        <v>24155</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20379</v>
+        <v>19620</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>57378</v>
+        <v>55640</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>64258</v>
+        <v>64375</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>48370</v>
+        <v>48419</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>84578</v>
+        <v>83596</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>79330</v>
+        <v>80039</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>61621</v>
+        <v>62295</v>
       </c>
     </row>
     <row r="8">
@@ -1425,31 +1425,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2615</v>
+        <v>2635</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3352</v>
+        <v>4121</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3245</v>
+        <v>3321</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2734</v>
+        <v>2132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8863</v>
+        <v>9472</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8655</v>
+        <v>8320</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8141</v>
+        <v>8259</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11590</v>
+        <v>12568</v>
       </c>
     </row>
     <row r="11">
@@ -1460,31 +1460,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12235</v>
+        <v>12396</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19324</v>
+        <v>18971</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10390</v>
+        <v>10001</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14912</v>
+        <v>16166</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13706</v>
+        <v>13935</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>25713</v>
+        <v>26250</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23718</v>
+        <v>23033</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>24950</v>
+        <v>25162</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>31241</v>
+        <v>30921</v>
       </c>
     </row>
     <row r="12">
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1042</v>
+        <v>1057</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
@@ -1577,19 +1577,19 @@
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
-        <v>972</v>
+        <v>983</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1047</v>
+        <v>1016</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="15">
@@ -1600,27 +1600,27 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11897</v>
+        <v>11231</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>4283</v>
+        <v>4553</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>8443</v>
+        <v>9332</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8082</v>
+        <v>8642</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12246</v>
+        <v>11533</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8557</v>
+        <v>8239</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9668</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="16">
@@ -1705,31 +1705,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>25889</v>
+        <v>25488</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13216</v>
+        <v>13860</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10978</v>
+        <v>10692</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>38374</v>
+        <v>37361</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>45092</v>
+        <v>43743</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>36930</v>
+        <v>38044</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>67866</v>
+        <v>68483</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>63562</v>
+        <v>64267</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>52737</v>
+        <v>54293</v>
       </c>
     </row>
     <row r="19">
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>49135</v>
+        <v>48735</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35932</v>
+        <v>34853</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27245</v>
+        <v>27465</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>66313</v>
+        <v>67720</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>74724</v>
+        <v>75703</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>67100</v>
+        <v>69817</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>104483</v>
+        <v>107007</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>99658</v>
+        <v>101246</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>88833</v>
+        <v>87540</v>
       </c>
     </row>
     <row r="20">
